--- a/2022-06-16-respaldo.xlsx
+++ b/2022-06-16-respaldo.xlsx
@@ -151,7 +151,6 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="13"/>
   <chart>
     <title>
       <tx>
@@ -276,21 +275,6 @@
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Hora</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
@@ -303,21 +287,6 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>KWh</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -7133,7 +7102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:FP78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
